--- a/Mifos Automation Excels/Loan Product/2627-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-FIX-INST-AMT-MORE-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2627-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-FIX-INST-AMT-MORE-Loanproduct.xlsx
@@ -230,7 +230,7 @@
     <t>2627-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-FIX-INST-AMT-MORE-1st</t>
   </si>
   <si>
-    <t>262d</t>
+    <t>2qq4</t>
   </si>
 </sst>
 </file>
@@ -618,7 +618,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Mifos Automation Excels/Loan Product/2627-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-FIX-INST-AMT-MORE-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2627-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-FIX-INST-AMT-MORE-Loanproduct.xlsx
@@ -230,7 +230,7 @@
     <t>2627-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-FIX-INST-AMT-MORE-1st</t>
   </si>
   <si>
-    <t>2qq4</t>
+    <t>262d</t>
   </si>
 </sst>
 </file>
@@ -618,7 +618,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Mifos Automation Excels/Loan Product/2627-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-FIX-INST-AMT-MORE-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/2627-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-FIX-INST-AMT-MORE-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>productname</t>
   </si>
@@ -224,10 +224,13 @@
     <t>allowfixingoftheinstallmentamount</t>
   </si>
   <si>
-    <t>2627-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-FIX-INST-AMT-MORE</t>
-  </si>
-  <si>
     <t>Penalties, Fees, Interest, Principal order</t>
+  </si>
+  <si>
+    <t>2627-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-FIX-INST-AMT-MORE-1st</t>
+  </si>
+  <si>
+    <t>262d</t>
   </si>
 </sst>
 </file>
@@ -615,7 +618,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -629,15 +632,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>2627</v>
+      <c r="B2" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -741,7 +744,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1009,7 +1012,7 @@
         <v>34</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
